--- a/medicine/Premiers secours et secourisme/Direction_générale_de_la_Sécurité_civile/Direction_générale_de_la_Sécurité_civile.xlsx
+++ b/medicine/Premiers secours et secourisme/Direction_générale_de_la_Sécurité_civile/Direction_générale_de_la_Sécurité_civile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_S%C3%A9curit%C3%A9_civile</t>
+          <t>Direction_générale_de_la_Sécurité_civile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La direction générale de la Sécurité civile est l'une des trois branches de la sécurité civile belge[1]. C'est un service purement administratif dont le but est la gestion des tâches administratives et la communication entre les deux autres services de la sécurité civile: les services d'incendie et la protection civile. Elle dépend du service public fédéral Intérieur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La direction générale de la Sécurité civile est l'une des trois branches de la sécurité civile belge. C'est un service purement administratif dont le but est la gestion des tâches administratives et la communication entre les deux autres services de la sécurité civile: les services d'incendie et la protection civile. Elle dépend du service public fédéral Intérieur.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_S%C3%A9curit%C3%A9_civile</t>
+          <t>Direction_générale_de_la_Sécurité_civile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_S%C3%A9curit%C3%A9_civile</t>
+          <t>Direction_générale_de_la_Sécurité_civile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Missions de la Direction Générale de la Sécurité Civile</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Régulation de l'achat de matériel
 Assurer le fonctionnement des appels téléphoniques 112.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_S%C3%A9curit%C3%A9_civile</t>
+          <t>Direction_générale_de_la_Sécurité_civile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
